--- a/Santahelper.xlsx
+++ b/Santahelper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\SantasHelper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnoldgihozo/Documents/GitHub/SantasHelper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BFC1F5-B28D-4E3E-A4A9-5FD88FB3690C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0126681B-AE50-D642-A329-E480A795A5E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="-72" windowWidth="17280" windowHeight="8964" xr2:uid="{6D9A3FE8-A3F7-4873-81AD-B8A467531AD8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6D9A3FE8-A3F7-4873-81AD-B8A467531AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,19 +474,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E53C25-17F3-42AE-A8C3-24DD26839CE8}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -494,7 +494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -517,42 +517,45 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="H14" s="1" t="s">
         <v>7</v>
       </c>
@@ -560,7 +563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H15" s="1" t="s">
         <v>8</v>
       </c>
@@ -568,7 +571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H16" s="1" t="s">
         <v>9</v>
       </c>
@@ -576,12 +579,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
       <c r="I17" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H18" s="2" t="s">
         <v>2</v>
       </c>
@@ -589,7 +592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H19" s="2" t="s">
         <v>10</v>
       </c>
@@ -597,27 +600,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H23" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H24" s="2" t="s">
         <v>15</v>
       </c>

--- a/Santahelper.xlsx
+++ b/Santahelper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnoldgihozo/Documents/GitHub/SantasHelper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\SantasHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0126681B-AE50-D642-A329-E480A795A5E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8CAB68-907D-469F-8A0A-D98A1486FF82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6D9A3FE8-A3F7-4873-81AD-B8A467531AD8}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{6D9A3FE8-A3F7-4873-81AD-B8A467531AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,15 +478,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -494,7 +494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -517,45 +517,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="H14" s="1" t="s">
         <v>7</v>
       </c>
@@ -563,7 +560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H15" s="1" t="s">
         <v>8</v>
       </c>
@@ -571,7 +568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H16" s="1" t="s">
         <v>9</v>
       </c>
@@ -579,12 +576,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="I17" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="2" t="s">
         <v>2</v>
       </c>
@@ -592,7 +589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H19" s="2" t="s">
         <v>10</v>
       </c>
@@ -600,27 +597,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H23" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H24" s="2" t="s">
         <v>15</v>
       </c>

--- a/Santahelper.xlsx
+++ b/Santahelper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\SantasHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8CAB68-907D-469F-8A0A-D98A1486FF82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7656843-9C52-40F5-A7FB-A3319D250B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{6D9A3FE8-A3F7-4873-81AD-B8A467531AD8}"/>
   </bookViews>
@@ -157,7 +157,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,15 +476,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E53C25-17F3-42AE-A8C3-24DD26839CE8}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1"/>
     <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -552,7 +554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H14" s="1" t="s">
         <v>7</v>
       </c>
